--- a/BT_Wiring/BoxTurtle_Wiring.xlsx
+++ b/BT_Wiring/BoxTurtle_Wiring.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bma\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182605BA-A346-46E4-A5B2-563226EF3681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="3168" yWindow="708" windowWidth="15576" windowHeight="15384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullPrecision="1" calcId="125725"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51" count="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
   <si>
     <t>Stepper 1</t>
   </si>
@@ -118,19 +124,10 @@
     <t>JST-XH-3</t>
   </si>
   <si>
-    <t>JST-HX-3</t>
-  </si>
-  <si>
     <t>465mm</t>
   </si>
   <si>
     <t>(hub)</t>
-  </si>
-  <si>
-    <t>D2F-L W/Lever X2</t>
-  </si>
-  <si>
-    <t>550mm</t>
   </si>
   <si>
     <t>TurtleNeck</t>
@@ -172,63 +169,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF2B579A"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF2B579A"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="0"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -257,72 +225,339 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="3">
+    <cellStyle name="ConditionalFormatStyle" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="HeaderStyle" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="ConditionalFormatStyle" xfId="20"/>
-    <cellStyle name="HeaderStyle" xfId="21"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+  <a:themeElements>
+    <a:clrScheme name="Office 2007 - 2010">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office 2007 - 2010">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office 2007 - 2010">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView view="normal" tabSelected="1" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -336,12 +571,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -350,12 +585,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -364,7 +599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -378,12 +613,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -392,8 +627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9"/>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -407,7 +641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -421,7 +655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -435,7 +669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -449,7 +683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -463,7 +697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -477,7 +711,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -491,7 +725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -505,7 +739,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -519,65 +753,65 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
         <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
         <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
         <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -586,12 +820,12 @@
         <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -600,12 +834,12 @@
         <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -614,32 +848,32 @@
         <v>32</v>
       </c>
       <c r="G29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
       </c>
       <c r="E30" t="s">
         <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
         <v>32</v>
@@ -648,21 +882,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32"/>
-      <c r="E32"/>
-    </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E35" t="s">
         <v>32</v>
@@ -671,12 +901,11 @@
         <v>33</v>
       </c>
       <c r="I35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
-  <extLst/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>